--- a/biology/Zoologie/Auletobius/Auletobius.xlsx
+++ b/biology/Zoologie/Auletobius/Auletobius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Auletobius est un genre d'insectes de l'ordre des coléoptères (insectes possédant en général deux paires d'ailes incluant entre autres les scarabées, coccinelles, lucanes, chrysomèles, hannetons, charançons et carabes), de la famille des Attelabidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon ITIS :
 Auletobius ater (LeConte, 1876)
